--- a/File/signupdatas.xlsx
+++ b/File/signupdatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Eclipse workspace new\BestBuy_Evaluation\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EC5086-C30F-4C83-B733-CD36A1785327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F992090-DD66-41D9-9A64-AB92AF70F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
